--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2.c_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2.c_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Parámetro</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>0.0%</t>
-  </si>
-  <si>
-    <t>66.7%</t>
   </si>
   <si>
     <t>0.5836</t>
@@ -625,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -639,7 +636,7 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -656,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -700,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05240467058791776</v>
+        <v>0.1082868871830167</v>
       </c>
       <c r="D2">
-        <v>3.771780487937804E-08</v>
+        <v>3.175769768759551E-05</v>
       </c>
       <c r="E2">
-        <v>0.1032555069750418</v>
+        <v>0.2219484172338722</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -714,16 +711,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.05240467058791776</v>
+        <v>0.1082868871830167</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.00887045386408003</v>
+        <v>0.005071508219712806</v>
       </c>
       <c r="E3">
-        <v>0.0009889368667790333</v>
+        <v>0.01416157585114486</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -731,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.771780487937804E-08</v>
+        <v>3.175769768759551E-05</v>
       </c>
       <c r="C4">
-        <v>0.00887045386408003</v>
+        <v>0.005071508219712806</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.4696599492936E-10</v>
+        <v>1.783434163504793E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -748,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.1032555069750418</v>
+        <v>0.2219484172338722</v>
       </c>
       <c r="C5">
-        <v>0.0009889368667790333</v>
+        <v>0.01416157585114486</v>
       </c>
       <c r="D5">
-        <v>1.4696599492936E-10</v>
+        <v>1.783434163504793E-05</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -795,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.941171099698198</v>
+        <v>-1.674018297317026</v>
       </c>
       <c r="D2">
-        <v>-5.526929079931508</v>
+        <v>-5.209648789881924</v>
       </c>
       <c r="E2">
-        <v>1.630158792659825</v>
+        <v>1.256964105794975</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -809,16 +806,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.941171099698198</v>
+        <v>1.674018297317026</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-2.620068689240221</v>
+        <v>-3.112757525925163</v>
       </c>
       <c r="E3">
-        <v>3.29947520929613</v>
+        <v>2.664469632133826</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -826,16 +823,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.526929079931508</v>
+        <v>5.209648789881924</v>
       </c>
       <c r="C4">
-        <v>2.620068689240221</v>
+        <v>3.112757525925163</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.448850788695664</v>
+        <v>5.450340075489096</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -843,13 +840,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-1.630158792659825</v>
+        <v>-1.256964105794975</v>
       </c>
       <c r="C5">
-        <v>-3.29947520929613</v>
+        <v>-2.664469632133826</v>
       </c>
       <c r="D5">
-        <v>-6.448850788695664</v>
+        <v>-5.450340075489096</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -911,13 +908,13 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -925,25 +922,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -954,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -977,25 +974,25 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
